--- a/lab2/schedule.xlsx
+++ b/lab2/schedule.xlsx
@@ -174,10 +174,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.88"/>
   </cols>
@@ -240,7 +240,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>11.774982</v>
@@ -254,7 +254,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>14.043545</v>
@@ -265,7 +265,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>17.466163</v>
